--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -250,7 +250,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>写开发路线文档，APP的首页跳转界面，我的界面</t>
+    <t>写开发路线文档，APP的首页跳转界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.24第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友管理界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录注册交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台登录注册交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>做一些细节的修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1178,9 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1240,7 +1274,9 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1334,7 +1370,9 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="5"/>
+      <c r="A63" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -1374,7 +1412,9 @@
       <c r="B67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -1384,7 +1424,9 @@
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -1394,8 +1436,12 @@
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
@@ -1404,7 +1450,9 @@
       <c r="B70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -1414,11 +1462,15 @@
       <c r="B71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -1429,24 +1481,112 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A72:D73"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -283,6 +283,38 @@
   </si>
   <si>
     <t>做一些细节的修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有部分界面没有做完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代码上出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员用户列表界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有接口要完善，APP前端还没有做好交互准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有接口要完善，APP前端还没有做好交互准备</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -698,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1510,8 +1542,12 @@
       <c r="B76" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1520,8 +1556,12 @@
       <c r="B77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="2"/>
+      <c r="C77" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1530,7 +1570,9 @@
       <c r="B78" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -1540,8 +1582,12 @@
       <c r="B79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="2"/>
+      <c r="C79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
@@ -1550,12 +1596,16 @@
       <c r="B80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="2"/>
+      <c r="C80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1567,8 +1617,98 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A81:D82"/>
     <mergeCell ref="A1:D1"/>
@@ -1585,8 +1725,6 @@
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A54:D55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -315,6 +315,34 @@
   </si>
   <si>
     <t>还有接口要完善，APP前端还没有做好交互准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知、创建群、添加好友、申请加入群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码、修改用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码、修改用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29第八周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群管理模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,11 +423,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,12 +772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -826,26 +854,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -922,26 +950,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1018,26 +1046,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1114,26 +1142,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1210,26 +1238,26 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1306,26 +1334,26 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1402,26 +1430,26 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1500,26 +1528,26 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1604,26 +1632,26 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1646,7 +1674,9 @@
       <c r="B85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -1656,7 +1686,9 @@
       <c r="B86" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
@@ -1666,7 +1698,9 @@
       <c r="B87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1676,7 +1710,9 @@
       <c r="B88" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -1686,31 +1722,115 @@
       <c r="B89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
+  <mergeCells count="22">
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -1720,11 +1840,17 @@
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A72:D73"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="93">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -334,15 +334,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.29第八周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员群列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>群管理模块</t>
+    <t>日期：2018.10.29第九周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代码上出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录注册交互，群管理模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后台交互的代码上出了问题，还有部分页面没完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：在前后台交互上花费了不少的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29第九周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录注册交互，群管理模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员用户个人信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看群</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,11 +459,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,12 +808,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -854,26 +890,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -950,26 +986,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1046,26 +1082,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1142,26 +1178,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1238,26 +1274,26 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1334,26 +1370,26 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1430,26 +1466,26 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1528,26 +1564,26 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1632,26 +1668,26 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1728,26 +1764,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="A92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -1770,27 +1806,37 @@
       <c r="B94" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -1800,7 +1846,9 @@
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
@@ -1810,25 +1858,121 @@
       <c r="B98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
@@ -1845,16 +1989,10 @@
     <mergeCell ref="A54:D55"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="100">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通知、创建群、添加好友、申请加入群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改密码、修改用户信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,10 +342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>APP登录注册交互，群管理模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>前后台交互的代码上出了问题，还有部分页面没完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -362,14 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.10.29第九周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP登录注册交互，群管理模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理员用户个人信息界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -379,6 +363,50 @@
   </si>
   <si>
     <t>管理员系统查看群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知、添加好友、申请加入群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录注册交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合所有界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户详情、群详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户详情、群详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31第九周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1第九周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -794,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:D109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,7 +1807,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1804,13 +1832,13 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C94" s="3">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -1818,13 +1846,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C95" s="3">
         <v>0.5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -1832,10 +1860,10 @@
         <v>22</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -1844,10 +1872,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -1856,16 +1884,16 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1879,7 +1907,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1904,9 +1932,11 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -1914,9 +1944,11 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -1924,9 +1956,11 @@
         <v>22</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -1934,9 +1968,11 @@
         <v>23</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C106" s="3"/>
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -1944,14 +1980,16 @@
         <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1963,14 +2001,96 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
+  <mergeCells count="26">
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
     <mergeCell ref="A92:D92"/>
@@ -1987,6 +2107,12 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
   </mergeCells>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -407,6 +407,34 @@
   </si>
   <si>
     <t>日期：2018.11.1第九周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位部分出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有部分界面没有做完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5第10周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -822,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2030,8 +2058,12 @@
       <c r="B112" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
@@ -2040,8 +2072,12 @@
       <c r="B113" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
@@ -2050,7 +2086,9 @@
       <c r="B114" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -2060,7 +2098,9 @@
       <c r="B115" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -2070,7 +2110,9 @@
       <c r="B116" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -2087,14 +2129,105 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D100"/>
+  <mergeCells count="28">
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -2106,15 +2239,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A99:D100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="117">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -435,6 +435,46 @@
   </si>
   <si>
     <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图定位,编写界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位部分出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分界面没有整合完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7第10周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -850,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,10 +2196,14 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
@@ -2168,8 +2212,12 @@
       <c r="B122" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="2"/>
+      <c r="C122" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
@@ -2178,7 +2226,9 @@
       <c r="B123" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -2188,7 +2238,9 @@
       <c r="B124" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -2196,9 +2248,11 @@
         <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C125" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -2215,8 +2269,108 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A135:D136"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A126:D127"/>
     <mergeCell ref="A54:D55"/>
@@ -2228,23 +2382,11 @@
     <mergeCell ref="A72:D73"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D28"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A117:D118"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
     <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A99:D100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="132">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -306,15 +306,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>还有接口要完善，APP前端还没有做好交互准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有接口要完善，APP前端还没有做好交互准备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码、修改用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码、修改用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29第九周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代码上出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后台交互的代码上出了问题，还有部分页面没完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：在前后台交互上花费了不少的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员用户个人信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP登录注册交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>还有接口要完善，APP前端还没有做好交互准备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有接口要完善，APP前端还没有做好交互准备</t>
+    <t>地图定位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合所有界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户详情、群详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统查看用户详情、群详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31第九周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1第九周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位部分出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有部分界面没有做完</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -322,27 +418,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改密码、修改用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改密码、修改用户信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员群列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.29第九周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在代码上出了问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后台交互的代码上出了问题，还有部分页面没完成</t>
+    <t>日期：2018.11.5第10周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位部分出了问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -350,27 +442,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：在前后台交互上花费了不少的时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员用户个人信息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员系统查看用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员系统查看群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知、添加好友、申请加入群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP登录注册交互</t>
+    <t>部分界面没有整合完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7第10周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员登录交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员群管理界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.8第10周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -378,11 +474,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图定位</t>
+    <t>通知、添加好友、申请加入群界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -390,35 +482,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>系统管理员群信息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员系统查看用户详情、群详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员系统查看用户详情、群详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.10.31第九周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.1第九周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位部分出了问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有部分界面没有做完</t>
+    <t>总结：对于交互那一部分接触比较少，所以在交互上用了不少时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对于百度地图不是很会用，所以在这方面用了不少时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：定位不能显示用户头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图定位并显示用户头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员好友管理界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员好友管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与后台交互用户信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -426,55 +514,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.5第10周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员登录交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员登录交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图定位,编写界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位部分出了问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分界面没有整合完</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.7第10周三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员登录交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员群管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员群管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员群管理界面</t>
+    <t>与后台交互用户信息和好友管理模块的交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12第11周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友、屏蔽好友后台管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图定位,群管理界面、我的界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1746,7 +1806,7 @@
         <v>0.5</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -1760,12 +1820,12 @@
         <v>0.5</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1807,7 +1867,7 @@
         <v>65</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -1819,7 +1879,7 @@
         <v>66</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -1831,7 +1891,7 @@
         <v>73</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -1843,7 +1903,7 @@
         <v>67</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -1855,7 +1915,7 @@
         <v>67</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -1875,7 +1935,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1900,13 +1960,13 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C94" s="3">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -1914,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C95" s="3">
         <v>0.5</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -1928,10 +1988,10 @@
         <v>22</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -1940,10 +2000,10 @@
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -1952,16 +2012,16 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1975,7 +2035,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2000,10 +2060,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -2012,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -2024,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -2036,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D106" s="2"/>
     </row>
@@ -2048,16 +2108,16 @@
         <v>9</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2071,7 +2131,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2096,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -2110,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2124,10 +2184,10 @@
         <v>22</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -2136,10 +2196,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -2148,16 +2208,16 @@
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2171,7 +2231,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2196,13 +2256,13 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2210,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2224,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D123" s="2"/>
     </row>
@@ -2236,10 +2296,10 @@
         <v>23</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -2248,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2271,7 +2331,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2296,9 +2356,11 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C130" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2306,9 +2368,11 @@
         <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C131" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -2316,9 +2380,11 @@
         <v>22</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -2326,9 +2392,11 @@
         <v>23</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C133" s="3"/>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -2336,9 +2404,11 @@
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -2355,11 +2425,213 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A99:D100"/>
+  <mergeCells count="34">
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A135:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -2371,22 +2643,6 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -526,15 +526,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优化系统管理员界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>添加好友、屏蔽好友后台管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地图定位,群管理界面、我的界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在提取其他人位置的代码上出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上传头像这一块出了问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14第11周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友、添加好友、查看通知、同意与拒绝添加好友</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员好友管理模块界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员群管理模块界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2256,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>105</v>
@@ -2550,8 +2578,12 @@
       <c r="B148" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="2"/>
+      <c r="C148" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
@@ -2560,17 +2592,23 @@
       <c r="B149" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="2"/>
+      <c r="C149" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C150" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -2578,9 +2616,11 @@
         <v>23</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C151" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
@@ -2588,9 +2628,11 @@
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C152" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
@@ -2607,31 +2649,96 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
     </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A135:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A99:D100"/>
+  <mergeCells count="36">
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -2643,6 +2750,29 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A135:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -563,6 +563,44 @@
   </si>
   <si>
     <t>优化系统管理员群管理模块界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.15第11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示头像出错了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置并显示头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员好友列表管理模块界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +608,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +627,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -630,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +697,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,12 +1056,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1074,26 +1138,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1170,26 +1234,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1266,26 +1330,26 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1362,26 +1426,26 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -1458,26 +1522,26 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -1554,26 +1618,26 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -1650,26 +1714,26 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -1748,26 +1812,26 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -1852,26 +1916,26 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -1948,26 +2012,26 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -2048,26 +2112,26 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -2144,26 +2208,26 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -2244,26 +2308,26 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
@@ -2344,26 +2408,26 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
@@ -2440,26 +2504,26 @@
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
@@ -2536,26 +2600,26 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
@@ -2636,26 +2700,26 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -2678,8 +2742,12 @@
       <c r="B157" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="2"/>
+      <c r="C157" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2688,8 +2756,12 @@
       <c r="B158" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="2"/>
+      <c r="C158" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
@@ -2698,7 +2770,9 @@
       <c r="B159" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2708,7 +2782,9 @@
       <c r="B160" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
@@ -2718,27 +2794,112 @@
       <c r="B161" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
+  <mergeCells count="38">
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -2750,29 +2911,30 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A72:D73"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A153:D154"/>
     <mergeCell ref="A110:D110"/>
     <mergeCell ref="A117:D118"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A135:D136"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A171:D172"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="147">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -601,6 +601,14 @@
   </si>
   <si>
     <t>优化系统管理员好友列表管理模块界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友、添加好友、查看通知、同意与拒绝添加好友、上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有部分没有完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,14 +712,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1053,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1138,18 +1146,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -1234,18 +1242,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -1330,18 +1338,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
@@ -1426,18 +1434,18 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -1522,18 +1530,18 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -1618,18 +1626,18 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -1714,18 +1722,18 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
@@ -1812,18 +1820,18 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
@@ -1916,18 +1924,18 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
@@ -2012,18 +2020,18 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -2112,18 +2120,18 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
@@ -2208,18 +2216,18 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
@@ -2308,18 +2316,18 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
@@ -2408,18 +2416,18 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
@@ -2504,18 +2512,18 @@
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
@@ -2600,18 +2608,18 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
@@ -2700,18 +2708,18 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
@@ -2783,9 +2791,11 @@
         <v>136</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
@@ -2795,26 +2805,28 @@
         <v>136</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="7"/>
@@ -2869,7 +2881,9 @@
       <c r="A169" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C169" s="3"/>
       <c r="D169" s="2"/>
     </row>
@@ -2877,26 +2891,50 @@
       <c r="A170" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C170" s="3"/>
       <c r="D170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A171:D172"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A135:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A108:D109"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A81:D82"/>
@@ -2913,28 +2951,6 @@
     <mergeCell ref="A27:D28"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A135:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A171:D172"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="158">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -609,6 +609,50 @@
   </si>
   <si>
     <t>还有部分没有完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置出问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置并显示头像，创建群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员好友列表管理模块界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友、添加好友与后台交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.19第12周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -712,14 +756,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,18 +1190,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -1242,18 +1286,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -1338,18 +1382,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
@@ -1434,18 +1478,18 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -1530,18 +1574,18 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -1626,18 +1670,18 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -1722,18 +1766,18 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
@@ -1820,18 +1864,18 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
@@ -1924,18 +1968,18 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
@@ -2020,18 +2064,18 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -2120,18 +2164,18 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
@@ -2216,18 +2260,18 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
@@ -2316,18 +2360,18 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
@@ -2416,18 +2460,18 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
@@ -2512,18 +2556,18 @@
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
@@ -2608,18 +2652,18 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
@@ -2708,18 +2752,18 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
@@ -2812,21 +2856,21 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="7"/>
@@ -2854,8 +2898,12 @@
       <c r="B166" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="2"/>
+      <c r="C166" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
@@ -2864,7 +2912,9 @@
       <c r="B167" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
@@ -2874,8 +2924,12 @@
       <c r="B168" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="2"/>
+      <c r="C168" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
@@ -2884,8 +2938,12 @@
       <c r="B169" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="2"/>
+      <c r="C169" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
@@ -2894,39 +2952,120 @@
       <c r="B170" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="2"/>
+      <c r="C170" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
+      <c r="A171" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A171:D172"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="A146:D146"/>
+  <mergeCells count="40">
     <mergeCell ref="A153:D154"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A162:D163"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A135:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A54:D55"/>
     <mergeCell ref="A101:D101"/>
@@ -2935,9 +3074,6 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -2949,8 +3085,22 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A180:D181"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A135:D136"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A164:D164"/>
+    <mergeCell ref="A171:D172"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="A146:D146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -628,31 +628,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>显示其他人位置并显示头像，创建群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员好友列表管理模块界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询好友、添加好友与后台交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.19第12周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>显示其他人位置出问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示其他人位置并显示头像，创建群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化系统管理员好友列表管理模块界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询好友、添加好友与后台交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.19第12周一</t>
+  </si>
+  <si>
+    <t>显示其他人位置出问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.21第12周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化系统管理员界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群模块</t>
+  </si>
+  <si>
+    <t>群模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知模块与后台交互、修改密码交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -756,14 +790,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:D173"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,18 +1224,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -1286,18 +1320,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -1382,18 +1416,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
@@ -1478,18 +1512,18 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -1574,18 +1608,18 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -1670,18 +1704,18 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -1766,18 +1800,18 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
@@ -1864,18 +1898,18 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
@@ -1968,18 +2002,18 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
@@ -2064,18 +2098,18 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -2164,18 +2198,18 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
@@ -2260,18 +2294,18 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
@@ -2360,18 +2394,18 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
@@ -2460,18 +2494,18 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
@@ -2556,18 +2590,18 @@
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
@@ -2652,18 +2686,18 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="8"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
@@ -2752,18 +2786,18 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
@@ -2856,21 +2890,21 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="7"/>
@@ -2902,7 +2936,7 @@
         <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -2925,10 +2959,10 @@
         <v>144</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -2942,7 +2976,7 @@
         <v>150</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -2956,26 +2990,26 @@
         <v>150</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="6" t="s">
-        <v>157</v>
+      <c r="A173" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -3000,19 +3034,25 @@
         <v>7</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C176" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -3020,9 +3060,11 @@
         <v>22</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C177" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -3032,7 +3074,9 @@
       <c r="B178" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -3042,49 +3086,115 @@
       <c r="B179" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="8"/>
-      <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D28"/>
+  <mergeCells count="42">
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A189:D190"/>
     <mergeCell ref="A173:D173"/>
     <mergeCell ref="A180:D181"/>
     <mergeCell ref="A108:D109"/>
@@ -3101,6 +3211,30 @@
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A144:D145"/>
     <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="178">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -687,6 +687,50 @@
   </si>
   <si>
     <t>通知模块与后台交互、修改密码交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取其他人头像出错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.26第13周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置并显示头像，群添加成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码交互、群模块交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码部分未完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -790,14 +834,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,18 +1268,18 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
@@ -1320,18 +1364,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
@@ -1416,18 +1460,18 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
@@ -1512,18 +1556,18 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
@@ -1608,18 +1652,18 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
@@ -1704,18 +1748,18 @@
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
@@ -1800,18 +1844,18 @@
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
@@ -1898,18 +1942,18 @@
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
@@ -2002,18 +2046,18 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
@@ -2098,18 +2142,18 @@
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -2198,18 +2242,18 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
@@ -2294,18 +2338,18 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
@@ -2394,18 +2438,18 @@
       <c r="D116" s="2"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
@@ -2494,18 +2538,18 @@
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
@@ -2590,18 +2634,18 @@
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
@@ -2686,18 +2730,18 @@
       <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
@@ -2786,18 +2830,18 @@
       <c r="D152" s="2"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
@@ -2890,21 +2934,21 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B164" s="7"/>
@@ -2994,21 +3038,21 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B173" s="7"/>
@@ -3092,21 +3136,21 @@
       <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B182" s="7"/>
@@ -3134,8 +3178,12 @@
       <c r="B184" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="2"/>
+      <c r="C184" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
@@ -3144,8 +3192,12 @@
       <c r="B185" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="2"/>
+      <c r="C185" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
@@ -3154,7 +3206,9 @@
       <c r="B186" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
@@ -3164,7 +3218,9 @@
       <c r="B187" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
@@ -3174,43 +3230,130 @@
       <c r="B188" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A180:D181"/>
+  <mergeCells count="44">
     <mergeCell ref="A108:D109"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A128:D128"/>
     <mergeCell ref="A135:D136"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A171:D172"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A144:D145"/>
     <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A162:D163"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A180:D181"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -3222,6 +3365,8 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A198:D199"/>
     <mergeCell ref="A54:D55"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A65:D65"/>
@@ -3229,12 +3374,13 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A162:D163"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A63:D64"/>
     <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="191">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -710,10 +710,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>显示其他人位置并显示头像，群添加成员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优化文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -731,6 +727,62 @@
   </si>
   <si>
     <t>修改密码部分未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群模块交互未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.28第13周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化地图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群模块交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示其他人位置并显示头像，添加群成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群模块交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.29第13周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.3第14周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员系统测试文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1172,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3196,7 +3248,7 @@
         <v>98</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -3276,9 +3328,11 @@
         <v>7</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C193" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
@@ -3286,19 +3340,25 @@
         <v>8</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C195" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
@@ -3306,9 +3366,11 @@
         <v>23</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C196" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
@@ -3316,9 +3378,11 @@
         <v>9</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C197" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
@@ -3335,8 +3399,290 @@
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
     </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="7"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="50">
+    <mergeCell ref="A209:D209"/>
+    <mergeCell ref="A216:D217"/>
+    <mergeCell ref="A218:D218"/>
+    <mergeCell ref="A225:D226"/>
     <mergeCell ref="A108:D109"/>
     <mergeCell ref="A135:D136"/>
     <mergeCell ref="A164:D164"/>
@@ -3350,10 +3696,6 @@
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A119:D119"/>
     <mergeCell ref="A126:D127"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A180:D181"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
@@ -3365,6 +3707,14 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A180:D181"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A207:D208"/>
     <mergeCell ref="A191:D191"/>
     <mergeCell ref="A198:D199"/>
     <mergeCell ref="A54:D55"/>
@@ -3379,8 +3729,6 @@
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A81:D82"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第11组/11项目计划表.xlsx
+++ b/第11组/11项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="198">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -778,11 +778,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.5第14周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.12.6第14周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>管理员系统测试文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聊天</t>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化管理员界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化管理员界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员模块交互</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1224,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3618,9 +3646,11 @@
         <v>7</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C220" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -3630,7 +3660,9 @@
       <c r="B221" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -3638,9 +3670,11 @@
         <v>22</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C222" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -3650,7 +3684,9 @@
       <c r="B223" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -3660,7 +3696,9 @@
       <c r="B224" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -3677,8 +3715,228 @@
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
     </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="54">
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A234:D235"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A243:D244"/>
+    <mergeCell ref="A207:D208"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A198:D199"/>
+    <mergeCell ref="A54:D55"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A72:D73"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A63:D64"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A180:D181"/>
+    <mergeCell ref="A200:D200"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A45:D46"/>
+    <mergeCell ref="A36:D37"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A117:D118"/>
     <mergeCell ref="A209:D209"/>
     <mergeCell ref="A216:D217"/>
     <mergeCell ref="A218:D218"/>
@@ -3695,40 +3953,6 @@
     <mergeCell ref="A162:D163"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A126:D127"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A45:D46"/>
-    <mergeCell ref="A36:D37"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A117:D118"/>
-    <mergeCell ref="A182:D182"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A180:D181"/>
-    <mergeCell ref="A200:D200"/>
-    <mergeCell ref="A207:D208"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A198:D199"/>
-    <mergeCell ref="A54:D55"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A72:D73"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D91"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A63:D64"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A81:D82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
